--- a/outputs/R_OUT - Area 20 Brood Year Tables.xlsx
+++ b/outputs/R_OUT - Area 20 Brood Year Tables.xlsx
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3,374</t>
+          <t>3,370</t>
         </is>
       </c>
     </row>
